--- a/assets/disciplinas/LOT2022.xlsx
+++ b/assets/disciplinas/LOT2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Capacitar o aluno para a análise e simulação de processos biotecnológicos através do desenvolvimento de modelos matemáticos baseados em princípios de conservação de massa, energia e quantidade de movimento, além de equações constitutivas, condições iniciais e de contorno. Serão ainda apresentadas e discutidas ferramentas computacionais aplicadas à resolução de modelos matemáticos e à simulação de processos, enfatizando o uso destas em problemas de engenharia bioquímica.</t>
+    <t>6007846 - Júlio César dos Santos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6007846 - Júlio César dos Santos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução à modelagem e simulação de bioprocessos; Estudo de problemas ligados à indústria de bioprocessos envolvendo o desenvolvimento e a resolução de modelos fenomenológicos: programas computacionais e equações algébricas; Modelagem matemática e simulação de processos fermentativos; Desenvolvimento e resolução de modelos: equações diferenciais; Ajuste de parâmetros e otimização de bioprocessos; Utilização de simuladores de processos aplicada à biotecnologia.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução à modelagem e simulação de bioprocessos1.1. Definição de modelo matemático1.2. Conceituação de variáveis dependentes e independentes de um sistema1.3. Definição e classificação de volume de controle2. Estudo de problemas ligados à indústria de bioprocessos envolvendo o desenvolvimento e a resolução de modelos fenomenológicos: programas computacionais e equações algébricas2.1 Introdução ao programa computacional utilizado para a resolução dos modelos matemáticos2.2 Problemas envolvendo sistemas de equações lineares2.3 Problemas envolvendo equações não lineares2.4 Problemas envolvendo sistemas de equações não lineares3. Modelagem matemática e simulação de processos fermentativos3.1. Objetivos3.2. Diferenças entre processos químicos e fermentativos3.3. Interações entre a população microbiana e o meio de cultura3.4. Formulação e classificação de modelos matemáticos de processos fermentativos 3.5. Modelos cinéticos de crescimento celular, consumo de substrato e formação de produtos em processos fermentativos3.6. Modelagem de processo fermentativo em reator: descontínuo, contínuo, contínuo com reciclo de células, descontínuo alimentado e tubular.4. Desenvolvimento e resolução de modelos: equações diferenciais5. Ajuste de parâmetros e otimização de bioprocessos6. Utilização de simuladores de processos aplicada à biotecnologia6.1. Projetos auxiliados por pacotes computacionais de simulação de projetos6.2. Classificação dos pacotes computacionais de simulação de processos6.3. Síntese e análise de processos6.4. Desenvolvimento de fluxogramas de simulação: conceitos e limitações, convergência.6.5. Exemplos de aplicação</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Os alunos serão avaliados formalmente por duas provas escritas (P1 e P2).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média aritmética das notas corresponderá à média do período letivo, ou seja:Média do período letivo normal = (P1+ P2)/2.Serão aprovados os alunos que obtiverem média igual ou maior que 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aos alunos que obtiverem média igual ou maior que 3,0 e menor que 5,0 será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2.Serão aprovados os alunos que obtiverem média final igual ou maior que 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ADIDHARMA, H.; TEMYANKO, V. Mathcad for chemical engineers. Victoria, Canadá: Trafford Publishing, 2007. ISBN 1-4251-1541-1.BARRETO, L. S. Iniciação ao Scilab. 2 ed. Costa de Caparica, Portugal: Ebook, 2011. Disponível na internet: http://www.mat.ufrgs.br/~guidi/grad/MAT01169/SciLivro2.pdf Consulta em 17 de janeiro de 2014.CUTLIP, M. B.; SHACHAM, M. Problem solving in chemical and biochemical engineering with POLYMAT™, Excel, and MATLAB™. 2 ed. Boston, MA: Pearson Education, Inc., 2008. ISBN 978-0-13-148204-3.DIMIAN, A.C. Integrated design and simulation of chemical processes. Amsterdan, The Netherlands: Elsevier Science B.V., 2003, 678 p. ISBN 0-444-82996-2. ISSN: 1570-7946.ELNASHAIE, S. S. E. H.; GARHYAN, P. Conservation equations and modeling of chemical and biochemical processes. New York: Marcel dekker, Inc., 2003. ISBN 0-8247-0957-8.LOPES, L. C. O. Utilizando o SCILAB na Resolução de Problemas da Engenharia Química. v. 0.1. Curitiba/Parana,Brasil: XV COBEQ, Congresso Brasileiro de Engenharia Química, 2004. Disponível na internet: http://www.google.com.br/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;ved=0CC0QFjAA&amp;url=http%3A%2F%2Fxa.yimg.com%2Fkq%2Fgroups%2F9656926%2F1161540061%2Fname%2Fscilab_COBEQ.pdf&amp;ei=rnbZUpOZF4TJkAeHo4DwCg&amp;usg=AFQjCNHc1deuW9_0qn7TyVvMEofHOUG9cA Consulta em 17 de janeiro de 2014.PINTO, J. C.; LAGE, P. L. C. Métodos numéricos em problemas de engenharia química. Rio de Janeiro, RJ: E-papers serviços Editoriais Ltda., 2001. ISBN 85-87922-11-4.RUGGIERO, M. A. G.; LOPES, V. L. R. Cálculo Numérico. Aspectos Teóricos e computacionais. 2 ed. São Paulo: Pearson education fo Brasil, 1998. ISBN 85-346-0204-2.SCHMIDELL, W.; LIMA, U. A.; AQUARONE, E.; BORZANI, W. Biotecnologia Industrial. Volume 2: Engenharia Bioquímica. São Paulo: Editora Edgard Blücher Ltda, 2001. ISBN 978-85-212-0279-0.SEIDER, W.D.; SEADER, J.D.; LEWIN, D.R.; WIDAGDO, S. Product and process design priciples. Synthesis, analysis, and Evaluation. 3 ed. Hoboken, NJ, USA: John Wiley &amp; Sons, Inc., 2009, 728p. ISBN-13: 978-0470-04895-5.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,34 +613,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -663,85 +657,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2022.xlsx
+++ b/assets/disciplinas/LOT2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Capacitar o aluno para a análise e simulação de processos biotecnológicos através do desenvolvimento de modelos matemáticos baseados em princípios de conservação de massa, energia e quantidade de movimento, além de equações constitutivas, condições iniciais e de contorno. Serão ainda apresentadas e discutidas ferramentas computacionais aplicadas à resolução de modelos matemáticos e à simulação de processos, enfatizando o uso destas em problemas de engenharia bioquímica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6007846 - Júlio César dos Santos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução à modelagem e simulação de bioprocessos; Estudo de problemas ligados à indústria de bioprocessos envolvendo o desenvolvimento e a resolução de modelos fenomenológicos: programas computacionais e equações algébricas; Modelagem matemática e simulação de processos fermentativos; Desenvolvimento e resolução de modelos: equações diferenciais; Ajuste de parâmetros e otimização de bioprocessos; Utilização de simuladores de processos aplicada à biotecnologia.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução à modelagem e simulação de bioprocessos1.1. Definição de modelo matemático1.2. Conceituação de variáveis dependentes e independentes de um sistema1.3. Definição e classificação de volume de controle2. Estudo de problemas ligados à indústria de bioprocessos envolvendo o desenvolvimento e a resolução de modelos fenomenológicos: programas computacionais e equações algébricas2.1 Introdução ao programa computacional utilizado para a resolução dos modelos matemáticos2.2 Problemas envolvendo sistemas de equações lineares2.3 Problemas envolvendo equações não lineares2.4 Problemas envolvendo sistemas de equações não lineares3. Modelagem matemática e simulação de processos fermentativos3.1. Objetivos3.2. Diferenças entre processos químicos e fermentativos3.3. Interações entre a população microbiana e o meio de cultura3.4. Formulação e classificação de modelos matemáticos de processos fermentativos 3.5. Modelos cinéticos de crescimento celular, consumo de substrato e formação de produtos em processos fermentativos3.6. Modelagem de processo fermentativo em reator: descontínuo, contínuo, contínuo com reciclo de células, descontínuo alimentado e tubular.4. Desenvolvimento e resolução de modelos: equações diferenciais5. Ajuste de parâmetros e otimização de bioprocessos6. Utilização de simuladores de processos aplicada à biotecnologia6.1. Projetos auxiliados por pacotes computacionais de simulação de projetos6.2. Classificação dos pacotes computacionais de simulação de processos6.3. Síntese e análise de processos6.4. Desenvolvimento de fluxogramas de simulação: conceitos e limitações, convergência.6.5. Exemplos de aplicação</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Os alunos serão avaliados formalmente por duas provas escritas (P1 e P2).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os alunos serão avaliados formalmente por duas provas escritas (P1 e P2).</t>
+    <t>A média aritmética das notas corresponderá à média do período letivo, ou seja:Média do período letivo normal = (P1+ P2)/2.Serão aprovados os alunos que obtiverem média igual ou maior que 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A média aritmética das notas corresponderá à média do período letivo, ou seja:Média do período letivo normal = (P1+ P2)/2.Serão aprovados os alunos que obtiverem média igual ou maior que 5,0.</t>
+    <t>Aos alunos que obtiverem média igual ou maior que 3,0 e menor que 5,0 será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2.Serão aprovados os alunos que obtiverem média final igual ou maior que 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aos alunos que obtiverem média igual ou maior que 3,0 e menor que 5,0 será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2.Serão aprovados os alunos que obtiverem média final igual ou maior que 5,0.</t>
+    <t>ADIDHARMA, H.; TEMYANKO, V. Mathcad for chemical engineers. Victoria, Canadá: Trafford Publishing, 2007. ISBN 1-4251-1541-1.BARRETO, L. S. Iniciação ao Scilab. 2 ed. Costa de Caparica, Portugal: Ebook, 2011. Disponível na internet: http://www.mat.ufrgs.br/~guidi/grad/MAT01169/SciLivro2.pdf Consulta em 17 de janeiro de 2014.CUTLIP, M. B.; SHACHAM, M. Problem solving in chemical and biochemical engineering with POLYMAT™, Excel, and MATLAB™. 2 ed. Boston, MA: Pearson Education, Inc., 2008. ISBN 978-0-13-148204-3.DIMIAN, A.C. Integrated design and simulation of chemical processes. Amsterdan, The Netherlands: Elsevier Science B.V., 2003, 678 p. ISBN 0-444-82996-2. ISSN: 1570-7946.ELNASHAIE, S. S. E. H.; GARHYAN, P. Conservation equations and modeling of chemical and biochemical processes. New York: Marcel dekker, Inc., 2003. ISBN 0-8247-0957-8.LOPES, L. C. O. Utilizando o SCILAB na Resolução de Problemas da Engenharia Química. v. 0.1. Curitiba/Parana,Brasil: XV COBEQ, Congresso Brasileiro de Engenharia Química, 2004. Disponível na internet: http://www.google.com.br/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;ved=0CC0QFjAA&amp;url=http%3A%2F%2Fxa.yimg.com%2Fkq%2Fgroups%2F9656926%2F1161540061%2Fname%2Fscilab_COBEQ.pdf&amp;ei=rnbZUpOZF4TJkAeHo4DwCg&amp;usg=AFQjCNHc1deuW9_0qn7TyVvMEofHOUG9cA Consulta em 17 de janeiro de 2014.PINTO, J. C.; LAGE, P. L. C. Métodos numéricos em problemas de engenharia química. Rio de Janeiro, RJ: E-papers serviços Editoriais Ltda., 2001. ISBN 85-87922-11-4.RUGGIERO, M. A. G.; LOPES, V. L. R. Cálculo Numérico. Aspectos Teóricos e computacionais. 2 ed. São Paulo: Pearson education fo Brasil, 1998. ISBN 85-346-0204-2.SCHMIDELL, W.; LIMA, U. A.; AQUARONE, E.; BORZANI, W. Biotecnologia Industrial. Volume 2: Engenharia Bioquímica. São Paulo: Editora Edgard Blücher Ltda, 2001. ISBN 978-85-212-0279-0.SEIDER, W.D.; SEADER, J.D.; LEWIN, D.R.; WIDAGDO, S. Product and process design priciples. Synthesis, analysis, and Evaluation. 3 ed. Hoboken, NJ, USA: John Wiley &amp; Sons, Inc., 2009, 728p. ISBN-13: 978-0470-04895-5.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -613,37 +622,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -657,74 +663,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
